--- a/material/analysis_template.xlsx
+++ b/material/analysis_template.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{873000D4-407C-4514-B0ED-0EA04AE84D26}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33CD6839-8750-48C9-B416-7EEE130DA12E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3675" yWindow="3045" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -650,8 +650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3:L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -735,7 +735,7 @@
         <v>6</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -773,7 +773,7 @@
         <v>6</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -811,7 +811,7 @@
         <v>6</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -849,7 +849,7 @@
         <v>6</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -887,7 +887,7 @@
         <v>6</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -925,7 +925,7 @@
         <v>6</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -963,7 +963,7 @@
         <v>6</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -1001,7 +1001,7 @@
         <v>6</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -1039,7 +1039,7 @@
         <v>6</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -1077,7 +1077,7 @@
         <v>6</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -1115,7 +1115,7 @@
         <v>6</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
